--- a/Guild Digital/Example CHT application/forms/app/assessment.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/assessment.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2350,22 +2350,128 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P444"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A211" activeCellId="0" sqref="A211"/>
-      <selection pane="bottomRight" activeCell="D243" activeCellId="0" sqref="D243"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+      <selection pane="bottomRight" activeCell="D103" activeCellId="0" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.54"/>
@@ -6034,8 +6140,8 @@
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6044,7 +6150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7382,8 +7488,8 @@
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7392,7 +7498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7404,7 +7510,7 @@
       <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.34"/>
@@ -7441,7 +7547,7 @@
       </c>
       <c r="C2" s="13" t="n">
         <f aca="true">NOW()</f>
-        <v>45123.5720241039</v>
+        <v>45545.6195179721</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>661</v>
@@ -8451,8 +8557,8 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
